--- a/P0007/09_FICHAS/N3-FD-General.xlsx
+++ b/P0007/09_FICHAS/N3-FD-General.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0007\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0007/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338B24CE-DC2F-4E90-B0AA-CDD8DE9DF04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{338B24CE-DC2F-4E90-B0AA-CDD8DE9DF04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48C0B61D-520B-4A90-8390-1C2E80C6A760}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -78,70 +89,70 @@
     <t>P0007</t>
   </si>
   <si>
-    <t>PR0001</t>
+    <t>NA</t>
   </si>
   <si>
     <t>R0001</t>
   </si>
   <si>
-    <t>DTM</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0007/06_SIG/02_RASTER/DTM</t>
+    <t>B_1_2</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0007/02_PRODUCTOS/DTM/DTM/B_1_2/tif</t>
   </si>
   <si>
     <t>Deltares</t>
   </si>
   <si>
-    <t>Corresponde al Modelo Digital del Terreno construido para la Mojana en 2015 por Deltares. Este DTM está compuesto por 3028 archivos en formato .tif que guardan la información del terreno de aproximadamente 4 km² en cada archivo. La resolución de cada documento es de 1 m x 1 m y sus sistemas de coordenadas corresponden al EPSG:3116. Los 3028 archivos se encuentran distribuidos en 2 carpetas, la primera tiene por nombre “B_1_2” que contiene 1534 archivos. La segunda carpeta llamada “B_3_4”, contiene 1494 archivos en formato .tif; todos estos forman el DTM para La Mojana.</t>
+    <t>La carpeta corresponde al Modelo Digital del Terreno construido para la Mojana en 2015 por Deltares. Este DTM está compuesto por 3028 archivos en formato .tif que guardan la información del terreno de aproximadamente 4 km² en cada archivo. La resolución de cada documento es de 1m² x 1m² y sus sistemas de coordenadas corresponden al EPSG:3116. Los 3028 archivos se encuentran distribuidos en 2 carpetas, la primera tiene por nombre “B_1_2” que contiene 1534 archivos. La segunda carpeta llamada “B_3_4”, contiene 1494 archivos en formato .tif; todos estos forman el DTM para La Mojana. (Parte 1)</t>
   </si>
   <si>
     <t>Capa cartográfica</t>
   </si>
   <si>
-    <t>.tif</t>
+    <t>tif</t>
+  </si>
+  <si>
+    <t>Las carpetas "B_1_2" y "B_3_4" tienen un peso total de 44.3 GB. Para construir el MDT completo para La Mojana, se deben unir todos los archivos en formato tif.</t>
+  </si>
+  <si>
+    <t>MDT, La Mojana, terreno, archivos raster, TIFF.</t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>TILES_MOJANA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0007/02_PRODUCTOS/DTM/DTM/TILES_MOJANA/TILES_MDT_MOJANA.shp</t>
+  </si>
+  <si>
+    <t>Corresponde a una capa cartográfica que presenta la identificación de cada área independiente que compone el MDT.</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>shp</t>
   </si>
   <si>
     <t>ZONIFICACIÓN</t>
   </si>
   <si>
-    <t>Raster</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Las carpetas "B_1_2" y "B_3_4" tienen un peso total de 44.3 GB. Para construir el MDT completo para La Mojana, se deben unir todos los archivos en formato tif.</t>
-  </si>
-  <si>
-    <t>MDT, La Mojana, Terreno, Archivos raster, TIFF</t>
-  </si>
-  <si>
-    <t>R0002</t>
-  </si>
-  <si>
-    <t>TILES_MOJANA</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0007/06_SIG/01_SHP/TILES_MDT_MOJANA.shp</t>
-  </si>
-  <si>
-    <t>Corresponde a la identificación de cada área independiente que compone el MDT.</t>
-  </si>
-  <si>
-    <t>.shp</t>
-  </si>
-  <si>
-    <t>polígono</t>
-  </si>
-  <si>
-    <t>Vectorial</t>
+    <t>Polígono</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
   </si>
   <si>
     <t>Esta capa presenta los nombres con los cuales se llamó cada archivo .tif de DTM. Es fundamental porque permite construir el MDT de áreas en particular. Esta capa se encuentra dentro de la carpeta DTM.</t>
   </si>
   <si>
-    <t>identificación de áreas, MDT, La Mojana</t>
+    <t>Identificación de áreas, MDT, La Mojana.</t>
   </si>
   <si>
     <t>R0003</t>
@@ -150,19 +161,16 @@
     <t>Bloques_LM</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0007/06_SIG/01_SHP/Bloques_LM.shp</t>
-  </si>
-  <si>
-    <t>Especifica las áreas delimitadas por sectores para el MDT.</t>
-  </si>
-  <si>
-    <t>Esta capa se encuentra dentro de la carpeta DTM.</t>
-  </si>
-  <si>
-    <t>MDT, La Mojana, Bloques, Áreas</t>
-  </si>
-  <si>
-    <t>PR0002</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0007/02_PRODUCTOS/DTM/DTM/TILES_MOJANA/bloques/Bloques_LM.shp</t>
+  </si>
+  <si>
+    <t>Capa cartográfica que específica las áreas delimitadas por sectores para el MDT.</t>
+  </si>
+  <si>
+    <t>Esta capa se encuentra dentro de la carpeta "TILES_MOJANA". Además, dentro de la carpeta se encuentre en formato pdf el mapa resultado del archivo shs.</t>
+  </si>
+  <si>
+    <t>MDT, La Mojana, bloques, áreas.</t>
   </si>
   <si>
     <t>R0004</t>
@@ -171,32 +179,56 @@
     <t>MOSAICO RGB</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0007/06_SIG/02_RASTER/MOJANA.ecw</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0007/02_PRODUCTOS/MOSAICO RGB</t>
   </si>
   <si>
     <t>Corresponde al ortomosaico construido para La Mojana. Posee resolución de 0.2 m x 0.2 m y pesa 38.60 GB. Cuenta con las bandas RGB y su extensión está comprendida entre:  858000,1350000: 974000.2,1540000. Se encuentra en el sistema de coordenadas MAGNA-SIRGAS / Colombia, Bogotá zone – Projected.</t>
   </si>
   <si>
-    <t>.ecw.aux.xml</t>
+    <t>ecw aux  xml</t>
   </si>
   <si>
     <t>Existen algunos vacíos en el ortomosaico de La Mojana, sin embargo, abarca prácticamente toda el área. Esta información fue construida con los datos LIDAR.</t>
   </si>
   <si>
-    <t>Ortomosaico, La Mojana</t>
+    <t>Ortomosaico, La Mojana.</t>
+  </si>
+  <si>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>B_3_4</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0007/02_PRODUCTOS/DTM/DTM/B_3_4/tif</t>
+  </si>
+  <si>
+    <t>La carpeta corresponde al Modelo Digital del Terreno construido para la Mojana en 2015 por Deltares. Este DTM está compuesto por 3028 archivos en formato .tif que guardan la información del terreno de aproximadamente 4 km² en cada archivo. La resolución de cada documento es de 1m² x 1m² y sus sistemas de coordenadas corresponden al EPSG:3116. Los 3028 archivos se encuentran distribuidos en 2 carpetas, la primera tiene por nombre “B_1_2” que contiene 1534 archivos. La segunda carpeta llamada “B_3_4”, contiene 1494 archivos en formato .tif; todos estos forman el DTM para La Mojana. (Parte 2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -230,13 +262,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,19 +566,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -611,172 +661,224 @@
         <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="F3" s="3">
+        <v>2015</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:17" ht="15">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2015</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1">
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" ht="15">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1">
         <v>2015</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
